--- a/src/apodeixi/knowledge_base/tests_integration/input_data/basic_posting_flows.big_rocks.explained/bre_ledger.LedgerPro.big-rocks.journeys.a6i.xlsx
+++ b/src/apodeixi/knowledge_base/tests_integration/input_data/basic_posting_flows.big_rocks.explained/bre_ledger.LedgerPro.big-rocks.journeys.a6i.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\project\src\apodeixi\knowledge_base\tests_integration\input_data\basic_posting_flows.big_rocks.explained\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727F0266-BAFC-41F0-B035-C840AE8CAEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038B7702-3CFD-4392-B162-6E66742EFDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Posting Label" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>organization</t>
   </si>
   <si>
-    <t>environment</t>
-  </si>
-  <si>
     <t>recordedBy</t>
   </si>
   <si>
@@ -413,6 +410,9 @@
   </si>
   <si>
     <t>BR9.1</t>
+  </si>
+  <si>
+    <t>knowledgeBase</t>
   </si>
 </sst>
 </file>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -884,7 +884,7 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
@@ -900,36 +900,36 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="5">
         <v>44361</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -945,63 +945,63 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1009,54 +1009,54 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection insertColumns="0" insertRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1065,7 +1065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -1081,44 +1081,44 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -1139,18 +1139,18 @@
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
@@ -1171,28 +1171,28 @@
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
@@ -1213,18 +1213,18 @@
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -1245,68 +1245,68 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
@@ -1327,86 +1327,86 @@
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26" s="3"/>
       <c r="C26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -1449,38 +1449,38 @@
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -1501,18 +1501,18 @@
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -1533,10 +1533,10 @@
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.45">
@@ -1544,105 +1544,105 @@
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
       <c r="D43" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
       <c r="D44" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
@@ -1663,18 +1663,18 @@
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
       <c r="D46" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
@@ -1695,10 +1695,10 @@
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
       <c r="D48" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="6:9" x14ac:dyDescent="0.45">
